--- a/Datos/Database by set/Set with text box/Xlsx sets/Signature Spellbook Gideon (SS2).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Signature Spellbook Gideon (SS2).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A41"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,280 +444,56 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Blackblade Reforged</t>
+          <t>('Blackblade Reforged', ['{2}', 'Legendary Artifact — Equipment', 'Equipped creature gets +1/+1 for each land you control.', 'Equip legendary creature {3}', 'Equip {7}'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{2}</t>
+          <t>('Gideon Jura', ['{3}{W}{W}', 'Legendary Planeswalker — Gideon', '+2: During target opponent’s next turn, creatures that player controls attack Gideon Jura if able.', '−2: Destroy target tapped creature.', '0: Until end of turn, Gideon Jura becomes a 6/6 Human Soldier creature that’s still a planeswalker. Prevent all damage that would be dealt to him this turn.', 'Loyalty: 6'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Legendary Artifact — Equipment</t>
+          <t>("Martyr's Bond", ['{4}{W}{W}', 'Enchantment', 'Whenever Martyr’s Bond or another nonland permanent you control is put into a graveyard from the battlefield, each opponent sacrifices a permanent that shares a card type with it.'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Equipped creature gets +1/+1 for each land you control.</t>
+          <t>('Path to Exile', ['{W}', 'Instant', 'Exile target creature. Its controller may search their library for a basic land card, put that card onto the battlefield tapped, then shuffle their library.'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Equip legendary creature {3}</t>
+          <t>('Rest in Peace', ['{1}{W}', 'Enchantment', 'When Rest in Peace enters the battlefield, exile all cards from all graveyards.', 'If a card or token would be put into a graveyard from anywhere, exile it instead.'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Equip {7}</t>
+          <t>('Shielded by Faith', ['{1}{W}{W}', 'Enchantment — Aura', 'Enchant creature', 'Enchanted creature has indestructible.', 'Whenever a creature enters the battlefield, you may attach Shielded by Faith to that creature.'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Gideon Jura</t>
+          <t>('True Conviction', ['{3}{W}{W}{W}', 'Enchantment', 'Creatures you control have double strike and lifelink.'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>{3}{W}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Legendary Planeswalker — Gideon</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>+2: During target opponent’s next turn, creatures that player controls attack Gideon Jura if able.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>−2: Destroy target tapped creature.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>0: Until end of turn, Gideon Jura becomes a 6/6 Human Soldier creature that’s still a planeswalker. Prevent all damage that would be dealt to him this turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Loyalty: 6</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Martyr's Bond</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>{4}{W}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Enchantment</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Whenever Martyr’s Bond or another nonland permanent you control is put into a graveyard from the battlefield, each opponent sacrifices a permanent that shares a card type with it.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Path to Exile</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Exile target creature. Its controller may search their library for a basic land card, put that card onto the battlefield tapped, then shuffle their library.</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Rest in Peace</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>{1}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Enchantment</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>When Rest in Peace enters the battlefield, exile all cards from all graveyards.</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>If a card or token would be put into a graveyard from anywhere, exile it instead.</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Shielded by Faith</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>{1}{W}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Enchantment — Aura</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Enchant creature</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Enchanted creature has indestructible.</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Whenever a creature enters the battlefield, you may attach Shielded by Faith to that creature.</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>True Conviction</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>{3}{W}{W}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Enchantment</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Creatures you control have double strike and lifelink.</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Worship</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>{3}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Enchantment</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>If you control a creature, damage that would reduce your life total to less than 1 reduces it to 1 instead.</t>
+          <t>('Worship', ['{3}{W}', 'Enchantment', 'If you control a creature, damage that would reduce your life total to less than 1 reduces it to 1 instead.'])</t>
         </is>
       </c>
     </row>
